--- a/database/seeds/category.xlsx
+++ b/database/seeds/category.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="8520" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="8520" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main_categories" sheetId="1" r:id="rId1"/>
     <sheet name="sub_categories" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="career_categories" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="91">
   <si>
     <t>name</t>
   </si>
@@ -283,13 +283,19 @@
   </si>
   <si>
     <t>Getting funding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoF for teens </t>
+  </si>
+  <si>
+    <t>CoF for undergraduates</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +309,13 @@
       <color rgb="FFCE9178"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -325,11 +338,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -718,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1431,12 +1445,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>